--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Clone\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE6090A0-F0CC-4EE6-8CE7-C4009B03E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377B40B-D3A4-4E34-85EC-A8E7F691D6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Concepts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +36,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="17">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,8 +131,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,16 +163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546735</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -113,8 +187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="152400"/>
-          <a:ext cx="1085850" cy="257175"/>
+          <a:off x="6463665" y="556260"/>
+          <a:ext cx="1085850" cy="424815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -152,6 +226,230 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Frezzing Panes</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C7F46B-90CD-6009-6EFE-9AF0A4DE0063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112520" y="411480"/>
+          <a:ext cx="9928860" cy="3977640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>🧾 Freeze Panes in Excel – Quick Notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Purpose</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>: Keeps selected rows/columns visible while scrolling large datasets.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Location</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>View Tab → Freeze Panes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Options:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Freeze Top Row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> → Locks only the first row. (Good for headers)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Freeze First Column</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> → Locks only the first column. (Good for IDs/Dates)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Freeze Panes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> → Locks both rows &amp; columns </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>above and left of the selected cell</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>👉 Example:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>B2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> → Row 1 (headers) &amp; Column A (dates) stay fixed.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>C2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> → Row 1 + Columns A &amp; B stay fixed.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>B5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> → Rows 1–4 + Column A stay fixed.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>⚡ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Rule of Thumb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Excel freezes </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>everything above and left</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> of the active cell.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -477,11 +775,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A2550-B7F2-4007-946A-36FC7C35D5FA}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>350</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>210</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>480</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45659</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>140</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45659</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>420</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45659</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>230</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45659</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45660</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>160</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45660</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>390</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45660</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <v>250</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45660</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>520</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45661</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>180</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45661</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>410</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45661</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>270</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45661</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>540</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45662</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45662</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>430</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45662</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3">
+        <v>290</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45662</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
+        <v>560</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45663</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>220</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45663</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3">
+        <v>450</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45663</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3">
+        <v>310</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45663</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3">
+        <v>580</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>240</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>470</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3">
+        <v>330</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <v>600</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>260</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3">
+        <v>490</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3">
+        <v>350</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3">
+        <v>620</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>280</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3">
+        <v>510</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3">
+        <v>370</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="3">
+        <v>640</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>300</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3">
+        <v>530</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3">
+        <v>390</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3">
+        <v>660</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FFD23C-E00C-460E-A74F-2775C4C62F82}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Clone\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377B40B-D3A4-4E34-85EC-A8E7F691D6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9756F3EC-2856-4E0C-93B6-C0F1CAD85526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Sneha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -775,13 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A2550-B7F2-4007-946A-36FC7C35D5FA}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +794,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -825,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45658</v>
       </c>
@@ -842,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45658</v>
       </c>
@@ -859,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45658</v>
       </c>
@@ -876,7 +879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45659</v>
       </c>
@@ -893,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45659</v>
       </c>
@@ -910,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45659</v>
       </c>
@@ -927,7 +930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45659</v>
       </c>
@@ -944,7 +947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45660</v>
       </c>
@@ -961,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45660</v>
       </c>
@@ -978,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45660</v>
       </c>
@@ -995,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45660</v>
       </c>
@@ -1011,8 +1014,11 @@
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45661</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45661</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45661</v>
       </c>

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9756F3EC-2856-4E0C-93B6-C0F1CAD85526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C952F-43B7-41F6-9F8F-4C852D3572A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -114,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -145,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,13 +785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A2550-B7F2-4007-946A-36FC7C35D5FA}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45661</v>
       </c>
@@ -1086,7 +1093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45662</v>
       </c>
@@ -1103,7 +1110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45662</v>
       </c>
@@ -1120,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45662</v>
       </c>
@@ -1137,7 +1144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45662</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45663</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45663</v>
       </c>
@@ -1187,8 +1194,9 @@
       <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45663</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45663</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45664</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45664</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45664</v>
       </c>
@@ -1273,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45664</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45665</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45665</v>
       </c>
@@ -1324,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45665</v>
       </c>

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C952F-43B7-41F6-9F8F-4C852D3572A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA9EBD0-5623-4A42-A7C4-280FACCC490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA9EBD0-5623-4A42-A7C4-280FACCC490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D2FC33-2169-44C7-8D87-4FF44FD6C3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -788,10 +791,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,6 +1162,9 @@
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D2FC33-2169-44C7-8D87-4FF44FD6C3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D38A4-80C9-4C7E-9A77-ECA563E1691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
   </si>
 </sst>
 </file>
@@ -788,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A2550-B7F2-4007-946A-36FC7C35D5FA}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45661</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45662</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45662</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45662</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45662</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45663</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45663</v>
       </c>
@@ -1201,8 +1204,11 @@
         <v>10</v>
       </c>
       <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45663</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45663</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45664</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45664</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45664</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45664</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45665</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45665</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45665</v>
       </c>

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D38A4-80C9-4C7E-9A77-ECA563E1691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E9948-2E23-41AF-A6E9-74C8D498195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -120,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -158,6 +164,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +804,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,6 +1122,7 @@
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E9948-2E23-41AF-A6E9-74C8D498195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE3E675-9A88-4FAB-881A-7B26E6D0F9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -120,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +130,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,7 +158,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,7 +798,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE3E675-9A88-4FAB-881A-7B26E6D0F9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A1BD5-EFDC-40BA-9471-B3261FAB661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -158,7 +158,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,7 +797,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1115,7 @@
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -1276,6 +1275,9 @@
       </c>
       <c r="E27" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">

--- a/10. Frezzing_Panes.xlsx
+++ b/10. Frezzing_Panes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A1BD5-EFDC-40BA-9471-B3261FAB661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F23EFDC-D1E2-48A4-A675-9AA13A74CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37FF67FA-BE64-4640-B66C-0DAA527FA52B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -797,7 +797,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,6 +1258,9 @@
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
